--- a/data/trans_orig/P57B3_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>143240</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122961</v>
+        <v>124270</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164428</v>
+        <v>164791</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2877382596273447</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2470035771895881</v>
+        <v>0.249632440854732</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3303007512777209</v>
+        <v>0.3310314779242288</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>244</v>
@@ -762,19 +762,19 @@
         <v>162882</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>143765</v>
+        <v>145485</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>181170</v>
+        <v>183743</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2612046909690052</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2305480223495083</v>
+        <v>0.2333060417764199</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2905322928914953</v>
+        <v>0.2946578467131231</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>399</v>
@@ -783,19 +783,19 @@
         <v>306122</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>277846</v>
+        <v>277385</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>337585</v>
+        <v>335341</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2729835542399114</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2477691009613664</v>
+        <v>0.2473579872373173</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.301041311626373</v>
+        <v>0.2990400128597171</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>354572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>333384</v>
+        <v>333021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>374851</v>
+        <v>373542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7122617403726553</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6696992487222793</v>
+        <v>0.668968522075771</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7529964228104126</v>
+        <v>0.750367559145268</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>617</v>
@@ -833,19 +833,19 @@
         <v>460698</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>442410</v>
+        <v>439837</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>479815</v>
+        <v>478095</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7387953090309948</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7094677071085046</v>
+        <v>0.705342153286877</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7694519776504914</v>
+        <v>0.7666939582235802</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>916</v>
@@ -854,19 +854,19 @@
         <v>815270</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>783807</v>
+        <v>786051</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>843546</v>
+        <v>844007</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7270164457600886</v>
+        <v>0.7270164457600887</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.698958688373627</v>
+        <v>0.7009599871402828</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7522308990386336</v>
+        <v>0.7526420127626828</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>132365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>111926</v>
+        <v>111237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>154792</v>
+        <v>154392</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1378600305144932</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1165729056826989</v>
+        <v>0.1158558433912833</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1612185375358295</v>
+        <v>0.1608022401279232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>307</v>
@@ -979,19 +979,19 @@
         <v>186947</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>167580</v>
+        <v>167280</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>208092</v>
+        <v>207599</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1678170644326527</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.150432330921192</v>
+        <v>0.1501625524185542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1867987995764136</v>
+        <v>0.1863561863183201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>454</v>
@@ -1000,19 +1000,19 @@
         <v>319311</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>291042</v>
+        <v>291244</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>349687</v>
+        <v>349640</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1539496208210193</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1403201047739031</v>
+        <v>0.1404174015328822</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1685944727614808</v>
+        <v>0.168572028071096</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>827772</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>805345</v>
+        <v>805745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>848211</v>
+        <v>848900</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.862139969485507</v>
+        <v>0.8621399694855069</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8387814624641703</v>
+        <v>0.8391977598720772</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8834270943173012</v>
+        <v>0.8841441566087167</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1298</v>
@@ -1050,19 +1050,19 @@
         <v>927044</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>905899</v>
+        <v>906392</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>946411</v>
+        <v>946711</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8321829355673473</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8132012004235863</v>
+        <v>0.8136438136816799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8495676690788081</v>
+        <v>0.8498374475814456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2061</v>
@@ -1071,19 +1071,19 @@
         <v>1754817</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1724441</v>
+        <v>1724488</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1783086</v>
+        <v>1782884</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8460503791789806</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8314055272385192</v>
+        <v>0.8314279719289039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8596798952260968</v>
+        <v>0.8595825984671178</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>80323</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65320</v>
+        <v>65328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97384</v>
+        <v>97776</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07675541432047447</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06241855857738354</v>
+        <v>0.06242621602263641</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09305848161480199</v>
+        <v>0.09343343450364154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>146</v>
@@ -1196,19 +1196,19 @@
         <v>94746</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79238</v>
+        <v>80283</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110328</v>
+        <v>111381</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09067202435591386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07583102791216613</v>
+        <v>0.07683109154336631</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1055844556771316</v>
+        <v>0.1065916625661033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -1217,19 +1217,19 @@
         <v>175069</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152730</v>
+        <v>154740</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198398</v>
+        <v>198856</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08370855515966158</v>
+        <v>0.08370855515966159</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07302760669671582</v>
+        <v>0.07398855320078482</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09486352279043642</v>
+        <v>0.09508254759259104</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>966156</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>949095</v>
+        <v>948703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>981159</v>
+        <v>981151</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9232445856795255</v>
+        <v>0.9232445856795256</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9069415183851981</v>
+        <v>0.9065665654963587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9375814414226166</v>
+        <v>0.9375737839773638</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1366</v>
@@ -1267,19 +1267,19 @@
         <v>950181</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>934599</v>
+        <v>933546</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>965689</v>
+        <v>964644</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9093279756440862</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8944155443228684</v>
+        <v>0.8934083374338967</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9241689720878339</v>
+        <v>0.9231689084566338</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2297</v>
@@ -1288,19 +1288,19 @@
         <v>1916337</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1893008</v>
+        <v>1892550</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1938676</v>
+        <v>1936666</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9162914448403383</v>
+        <v>0.9162914448403384</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9051364772095635</v>
+        <v>0.904917452407409</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9269723933032841</v>
+        <v>0.926011446799215</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>56671</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42152</v>
+        <v>42304</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73512</v>
+        <v>74015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05806906884780993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04319137678068927</v>
+        <v>0.04334729358062063</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07532534450062181</v>
+        <v>0.07584005554058093</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -1413,19 +1413,19 @@
         <v>58373</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46597</v>
+        <v>45937</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74526</v>
+        <v>72133</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06432213179527617</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05134614733990633</v>
+        <v>0.05061867534682515</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08212136702627236</v>
+        <v>0.07948453924862298</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -1434,19 +1434,19 @@
         <v>115044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97527</v>
+        <v>97127</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141648</v>
+        <v>139772</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0610820148386185</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05178127212279894</v>
+        <v>0.05156925122059994</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07520708139990702</v>
+        <v>0.07421139333256353</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>919258</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>902417</v>
+        <v>901914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>933777</v>
+        <v>933625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9419309311521902</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9246746554993782</v>
+        <v>0.9241599444594192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.956808623219311</v>
+        <v>0.9566527064193794</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1237</v>
@@ -1484,19 +1484,19 @@
         <v>849132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>832979</v>
+        <v>835372</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>860908</v>
+        <v>861568</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9356778682047238</v>
+        <v>0.9356778682047239</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9178786329737276</v>
+        <v>0.9205154607513769</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9486538526600936</v>
+        <v>0.9493813246531747</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2128</v>
@@ -1505,19 +1505,19 @@
         <v>1768390</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1741786</v>
+        <v>1743662</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1785907</v>
+        <v>1786307</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9389179851613815</v>
+        <v>0.9389179851613816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9247929186000929</v>
+        <v>0.9257886066674365</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.948218727877201</v>
+        <v>0.9484307487794001</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>412598</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>374127</v>
+        <v>374821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>453196</v>
+        <v>449897</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1185505509110611</v>
+        <v>0.118550550911061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1074966329251235</v>
+        <v>0.107696216571691</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1302153826963301</v>
+        <v>0.1292675209313982</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>779</v>
@@ -1630,19 +1630,19 @@
         <v>502947</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>470801</v>
+        <v>466253</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>539482</v>
+        <v>537619</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1362999068478902</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1275882470693919</v>
+        <v>0.1263557955103015</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1462010159046715</v>
+        <v>0.1456960279721198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1235</v>
@@ -1651,19 +1651,19 @@
         <v>915545</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>863181</v>
+        <v>865454</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>971899</v>
+        <v>970471</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1276847057374171</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1203818687974023</v>
+        <v>0.1206988052672127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1355440089959044</v>
+        <v>0.1353448246657014</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3067759</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3027161</v>
+        <v>3030460</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3106230</v>
+        <v>3105536</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8814494490889389</v>
+        <v>0.8814494490889391</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.86978461730367</v>
+        <v>0.8707324790686016</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8925033670748761</v>
+        <v>0.8923037834283088</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4518</v>
@@ -1701,19 +1701,19 @@
         <v>3187056</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3150521</v>
+        <v>3152384</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3219202</v>
+        <v>3223750</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8637000931521098</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8537989840953285</v>
+        <v>0.8543039720278803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8724117529306081</v>
+        <v>0.8736442044896984</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7402</v>
@@ -1722,19 +1722,19 @@
         <v>6254815</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6198461</v>
+        <v>6199889</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6307179</v>
+        <v>6304906</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8723152942625828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8644559910040955</v>
+        <v>0.8646551753342986</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8796181312025977</v>
+        <v>0.8793011947327875</v>
       </c>
     </row>
     <row r="18">
